--- a/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>135,4%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>110,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,14</t>
+          <t>-0,73; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 10,51</t>
+          <t>-0,5; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,26</t>
+          <t>-10,61; 10,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 935,46</t>
+          <t>-65,75; 369,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 100,25</t>
+          <t>-56,36; 927,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 325,04</t>
+          <t>-49,38; 118,93</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>-11,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,47</t>
+          <t>-0,05; 0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,57</t>
+          <t>-0,85; 0,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,59</t>
+          <t>-2,7; 1,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 94,46</t>
+          <t>-20,86; 351,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 46,09</t>
+          <t>-67,44; 104,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 252,92</t>
+          <t>-45,76; 44,46</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-47,31%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>28,34%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,93%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; -0,14</t>
+          <t>-1,23; 0,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,01</t>
+          <t>-1,92; -0,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,14</t>
+          <t>-1,17; 2,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-93,04; 163,65</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-51,21; 185,61</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-92,63; 67,97</t>
+          <t>-45,86; 225,34</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>-0,18%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,37</t>
+          <t>-0,15; 0,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,22</t>
+          <t>-0,58; 0,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,43</t>
+          <t>-2,19; 2,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 64,18</t>
+          <t>-25,01; 149,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 55,22</t>
+          <t>-51,05; 75,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 105,99</t>
+          <t>-34,07; 49,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>-47,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,78</t>
+          <t>-2,39; 0,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 10,92</t>
+          <t>-12,78; 10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,75; 369,54</t>
+          <t>-88,3; 100,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 118,93</t>
+          <t>-52,95; 103,65</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 0,79</t>
+          <t>-0,08; 0,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,56</t>
+          <t>-2,61; 1,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 351,69</t>
+          <t>-17,13; 294,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 44,46</t>
+          <t>-43,99; 55,37</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-47,31%</t>
+          <t>-57,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,42</t>
+          <t>-0,98; 0,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,09</t>
+          <t>-1,09; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-93,04; 163,65</t>
+          <t>-92,13; 104,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 225,34</t>
+          <t>-42,06; 253,05</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,57</t>
+          <t>-0,34; 0,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,02</t>
+          <t>-2,37; 2,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 149,37</t>
+          <t>-42,83; 95,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 49,67</t>
+          <t>-35,98; 54,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,68</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>110,35%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-47,74%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>110,35%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-12,78; 10,53</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 2,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-2,39; 0,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 2,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,78; 10,53</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-52,95; 103,65</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-56,36; 927,51</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-88,3; 100,05</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-56,36; 927,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-52,95; 103,65</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,34</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-10,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>79,45%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-10,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-11,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,61; 1,73</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 0,58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,08; 0,82</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 0,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 1,73</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-43,99; 55,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-67,44; 104,51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-17,13; 294,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-67,44; 104,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-43,99; 55,37</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,35</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-57,02%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>28,34%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,09; 2,35</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; -0,21</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,98; 0,11</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; -0,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 2,35</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-42,06; 253,05</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-92,13; 104,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,06; 253,05</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,82%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,37; 2,15</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 0,47</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,34; 0,37</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 0,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 2,15</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-35,98; 54,61</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-51,05; 75,93</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-42,83; 95,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-51,05; 75,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-35,98; 54,61</t>
         </is>
       </c>
     </row>
